--- a/resources/experiment 1/metrics/MAPE/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Edema macular diabético (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5238820943813298</v>
+        <v>0.52388209438133</v>
       </c>
       <c r="C2" t="n">
         <v>0.5238820943813298</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03063901691497696</v>
+        <v>0.03048732093053691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03072872643638133</v>
+        <v>0.03051507313546532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03072872643638133</v>
+        <v>0.06413505045966662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03821768559995047</v>
+        <v>0.02970979745812575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03821768559995046</v>
+        <v>0.02982992260983418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03821768559995046</v>
+        <v>0.05749184399892781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1356634666665548</v>
+        <v>0.02538666422943526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1357288824671332</v>
+        <v>0.02861434234868026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1357288824671332</v>
+        <v>0.03366883031565795</v>
       </c>
     </row>
   </sheetData>
